--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_LapDat.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="91">
   <si>
     <t>STT</t>
   </si>
@@ -289,6 +289,21 @@
   </si>
   <si>
     <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GSM</t>
+  </si>
+  <si>
+    <t>Xử lý lại nguồn module GSM</t>
+  </si>
+  <si>
+    <t>VI.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180629 </t>
   </si>
 </sst>
 </file>
@@ -700,6 +715,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -712,31 +751,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1045,7 +1060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -1078,43 +1093,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -1159,58 +1174,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -1235,23 +1250,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="69" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1303,7 +1318,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="70"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1362,7 +1377,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="70"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1421,7 +1436,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="70"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1480,7 +1495,7 @@
         <v>81</v>
       </c>
       <c r="T9" s="70"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1535,7 +1550,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1545,26 +1560,52 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="37">
+        <v>44385</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44385</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="39">
+        <v>869627031772403</v>
+      </c>
       <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="G11" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="1"/>
+      <c r="I11" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="M11" s="40" t="s">
+        <v>87</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="O11" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1574,26 +1615,54 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="B12" s="37">
+        <v>44385</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44385</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="39">
+        <v>866192037824792</v>
+      </c>
       <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="G12" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="I12" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>89</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1605,26 +1674,54 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
+      <c r="B13" s="37">
+        <v>44385</v>
+      </c>
+      <c r="C13" s="37">
+        <v>44385</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="39">
+        <v>866192037756101</v>
+      </c>
       <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="G13" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H13" s="13"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
+      <c r="I13" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
+      <c r="O13" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>89</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1653,7 +1750,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1682,7 +1779,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1711,7 +1808,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1862,7 +1959,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -1894,7 +1991,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -2043,7 +2140,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -2171,7 +2268,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2299,7 +2396,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2363,7 +2460,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2716,7 +2813,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -2942,6 +3039,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2953,13 +3057,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3003,43 +3100,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -3084,58 +3181,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -3160,23 +3257,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3202,7 +3299,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3233,7 +3330,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3262,7 +3359,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3291,7 +3388,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3320,7 +3417,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3349,7 +3446,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3378,7 +3475,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3409,7 +3506,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3438,7 +3535,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3467,7 +3564,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3496,7 +3593,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4727,13 +4824,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4745,6 +4835,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_LapDat.xlsx
@@ -12,21 +12,27 @@
     <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102V" sheetId="32" r:id="rId1"/>
-    <sheet name="TongThang" sheetId="25" r:id="rId2"/>
+    <sheet name="TG102SE" sheetId="34" r:id="rId1"/>
+    <sheet name="TG102" sheetId="33" r:id="rId2"/>
+    <sheet name="TG102V" sheetId="32" r:id="rId3"/>
+    <sheet name="TongThang" sheetId="25" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TG102'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">'TG102'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">TongThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="93">
   <si>
     <t>STT</t>
   </si>
@@ -304,6 +310,12 @@
   </si>
   <si>
     <t xml:space="preserve">W.1.00.---01.180629 </t>
+  </si>
+  <si>
+    <t>TG102</t>
+  </si>
+  <si>
+    <t>TG102SE</t>
   </si>
 </sst>
 </file>
@@ -503,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -715,7 +727,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -737,21 +770,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1060,7 +1078,3625 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="68" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="68" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17" style="20" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="58" customWidth="1"/>
+    <col min="10" max="10" width="53" style="20" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="58" style="20" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="20" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="20" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="20"/>
+    <col min="21" max="21" width="30.5703125" style="20" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="20" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="20" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="47"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="82"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="27"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="27"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="77"/>
+      <c r="M4" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="48"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="83"/>
+      <c r="B5" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="77"/>
+      <c r="K5" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="48"/>
+    </row>
+    <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="37">
+        <v>44386</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="39">
+        <v>861694031739848</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="71"/>
+    </row>
+    <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37">
+        <v>44386</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="39">
+        <v>861694031114851</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="71"/>
+    </row>
+    <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="37">
+        <v>44386</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="39">
+        <v>861694031774423</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="71"/>
+    </row>
+    <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="71"/>
+    </row>
+    <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="71"/>
+    </row>
+    <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="71"/>
+    </row>
+    <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="71"/>
+    </row>
+    <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="71"/>
+    </row>
+    <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="71"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="71"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="71"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="71"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="14"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="49"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="14"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="14"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="14"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="14"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="49"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="14"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="14"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="14"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="14"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="10">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="14"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="10">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="14"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="14"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="10">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="14"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="10">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="14"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="14"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="10">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="14"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="10">
+        <f>SUM(V26:V36)</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="14"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="14"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="14"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="10">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="14"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="10">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="14"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="14"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="14"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="35">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="33"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
+        <v>45</v>
+      </c>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
+      <c r="X50" s="33"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>46</v>
+      </c>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
+      <c r="X51" s="33"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="33"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>48</v>
+      </c>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
+      <c r="X53" s="33"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>49</v>
+      </c>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="33"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="33"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="68" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="68" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17" style="20" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="58" customWidth="1"/>
+    <col min="10" max="10" width="53" style="20" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="58" style="20" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="20" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="20" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="20"/>
+    <col min="21" max="21" width="30.5703125" style="20" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="20" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="20" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="47"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="82"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="27"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="27"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="77"/>
+      <c r="M4" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="48"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="83"/>
+      <c r="B5" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="77"/>
+      <c r="K5" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="48"/>
+    </row>
+    <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="37">
+        <v>44356</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="39">
+        <v>863306024483627</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="71"/>
+    </row>
+    <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37">
+        <v>44356</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="39">
+        <v>863306024480276</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="71"/>
+    </row>
+    <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="37">
+        <v>44356</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="39">
+        <v>863306024475110</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="71"/>
+    </row>
+    <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="71"/>
+    </row>
+    <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="71"/>
+    </row>
+    <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="71"/>
+    </row>
+    <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="71"/>
+    </row>
+    <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="71"/>
+    </row>
+    <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="71"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="71"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="71"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="71"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="14"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="49"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="14"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="14"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="14"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="14"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="49"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="14"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="14"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="14"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="14"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="10">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="14"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="10">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="14"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="14"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="10">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="14"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="10">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="14"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="14"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="10">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="14"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="10">
+        <f>SUM(V26:V36)</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="14"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="14"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="14"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="10">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="14"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="10">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="14"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="14"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="14"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="35">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="33"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
+        <v>45</v>
+      </c>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
+      <c r="X50" s="33"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>46</v>
+      </c>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
+      <c r="X51" s="33"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="33"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>48</v>
+      </c>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
+      <c r="X53" s="33"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>49</v>
+      </c>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="33"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="33"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -1093,43 +4729,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -1174,58 +4810,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -1250,23 +4886,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="69" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1318,7 +4954,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="70"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1377,7 +5013,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="70"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1436,7 +5072,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="70"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1495,7 +5131,7 @@
         <v>81</v>
       </c>
       <c r="T9" s="70"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1550,7 +5186,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1605,7 +5241,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1662,7 +5298,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1721,7 +5357,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1750,7 +5386,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1779,7 +5415,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1808,7 +5444,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3039,13 +6675,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3057,13 +6686,20 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
@@ -3100,43 +6736,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -3181,58 +6817,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -3257,23 +6893,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3299,7 +6935,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3330,7 +6966,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3359,7 +6995,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3388,7 +7024,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3417,7 +7053,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3446,7 +7082,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3475,7 +7111,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3506,7 +7142,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3535,7 +7171,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3564,7 +7200,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3593,7 +7229,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4824,6 +8460,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4835,13 +8478,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_LapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="34" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="99">
   <si>
     <t>STT</t>
   </si>
@@ -316,6 +316,24 @@
   </si>
   <si>
     <t>TG102SE</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15757,1</t>
+  </si>
+  <si>
+    <t>Mất nguồn module GSM</t>
+  </si>
+  <si>
+    <t>Thay cuộn cảm</t>
+  </si>
+  <si>
+    <t>Lỗi IC giao tiếp, mất cấu hình</t>
+  </si>
+  <si>
+    <t>Thay IC giao tiếp, cấu hình lại thiết bị</t>
+  </si>
+  <si>
+    <t>LK,MCH</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -2859,13 +2877,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2877,6 +2888,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2887,8 +2905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3116,15 +3134,27 @@
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="50"/>
-      <c r="J6" s="40"/>
+      <c r="J6" s="40" t="s">
+        <v>96</v>
+      </c>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>97</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>98</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
       <c r="U6" s="73" t="s">
@@ -3154,16 +3184,30 @@
         <v>66</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="40"/>
+      <c r="I7" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>94</v>
+      </c>
       <c r="K7" s="60"/>
       <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="M7" s="40" t="s">
+        <v>95</v>
+      </c>
       <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
       <c r="U7" s="74"/>
@@ -3588,7 +3632,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -3620,7 +3664,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -3833,7 +3877,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -3897,7 +3941,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -3929,7 +3973,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -4089,7 +4133,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4668,13 +4712,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4686,6 +4723,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6675,6 +6719,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6686,13 +6737,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8460,13 +8504,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8478,6 +8515,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_LapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="34" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="109">
   <si>
     <t>STT</t>
   </si>
@@ -334,6 +334,36 @@
   </si>
   <si>
     <t>LK,MCH</t>
+  </si>
+  <si>
+    <t>Xử lý lại nguồn module GSM, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Thiết bị mất nguồn module GSM</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>Thiết bị mất cấu hình</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, cấu hình lại thiết bị</t>
+  </si>
+  <si>
+    <t>LK,NCFW,MCH</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.17090</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,14242</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim</t>
   </si>
 </sst>
 </file>
@@ -533,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -751,22 +781,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -788,6 +806,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1096,7 +1129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -1129,43 +1162,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -1210,58 +1243,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -1286,23 +1319,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1336,7 +1369,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1375,7 +1408,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1412,7 +1445,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1441,7 +1474,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1470,7 +1503,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1499,7 +1532,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1528,7 +1561,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1559,7 +1592,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1588,7 +1621,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1617,7 +1650,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1646,7 +1679,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2877,6 +2910,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2888,13 +2928,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2905,8 +2938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2938,43 +2971,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -3019,58 +3052,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3095,23 +3128,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3157,7 +3190,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3210,7 +3243,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3247,7 +3280,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3276,7 +3309,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3305,7 +3338,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3334,7 +3367,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3363,7 +3396,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3394,7 +3427,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3423,7 +3456,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3452,7 +3485,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3481,7 +3514,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4712,6 +4745,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4723,13 +4763,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4740,8 +4773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4773,43 +4806,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -4854,58 +4887,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -4930,23 +4963,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="69" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4998,7 +5031,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="70"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5057,7 +5090,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="70"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5116,7 +5149,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="70"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5175,7 +5208,7 @@
         <v>81</v>
       </c>
       <c r="T9" s="70"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5230,7 +5263,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5285,7 +5318,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5342,7 +5375,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5401,7 +5434,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5411,26 +5444,54 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="37">
+        <v>44392</v>
+      </c>
+      <c r="C14" s="37">
+        <v>44392</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="39">
+        <v>868926033915122</v>
+      </c>
+      <c r="F14" s="73"/>
+      <c r="G14" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
+      <c r="I14" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
+      <c r="O14" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>89</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5440,26 +5501,54 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
+      <c r="B15" s="37">
+        <v>44392</v>
+      </c>
+      <c r="C15" s="37">
+        <v>44392</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="39">
+        <v>868926033939049</v>
+      </c>
       <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="G15" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="I15" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="38"/>
+      <c r="O15" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>89</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5469,26 +5558,52 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="38"/>
+      <c r="B16" s="37">
+        <v>44392</v>
+      </c>
+      <c r="C16" s="37">
+        <v>44392</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="39">
+        <v>868926033906790</v>
+      </c>
+      <c r="F16" s="73"/>
+      <c r="G16" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="55"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="J16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="M16" s="40" t="s">
+        <v>103</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
+      <c r="O16" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>104</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5498,23 +5613,51 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
+      <c r="B17" s="37">
+        <v>44392</v>
+      </c>
+      <c r="C17" s="37">
+        <v>44392</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="39">
+        <v>868926033964229</v>
+      </c>
+      <c r="F17" s="73"/>
+      <c r="G17" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="40"/>
+      <c r="I17" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="M17" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="38"/>
+      <c r="O17" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
       <c r="U17" s="70"/>
@@ -5525,23 +5668,51 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="B18" s="37">
+        <v>44392</v>
+      </c>
+      <c r="C18" s="37">
+        <v>44392</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="39">
+        <v>868926033990638</v>
+      </c>
+      <c r="F18" s="73"/>
+      <c r="G18" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
+      <c r="I18" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="10"/>
+      <c r="O18" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
@@ -5552,23 +5723,51 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
+      <c r="B19" s="37">
+        <v>44392</v>
+      </c>
+      <c r="C19" s="37">
+        <v>44392</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="39">
+        <v>868926033932457</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="I19" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="M19" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="10"/>
+      <c r="O19" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
       <c r="U19" s="69" t="s">
@@ -5583,23 +5782,51 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
+      <c r="B20" s="37">
+        <v>44393</v>
+      </c>
+      <c r="C20" s="37">
+        <v>44393</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="39">
+        <v>864811037292252</v>
+      </c>
       <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
+      <c r="G20" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="I20" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L20" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="M20" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="10"/>
+      <c r="O20" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="S20" s="4"/>
       <c r="T20" s="14"/>
       <c r="U20" s="10" t="s">
@@ -5615,23 +5842,51 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
+      <c r="B21" s="37">
+        <v>44393</v>
+      </c>
+      <c r="C21" s="37">
+        <v>44393</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="39">
+        <v>869627031838964</v>
+      </c>
       <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
+      <c r="G21" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="I21" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L21" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="10"/>
+      <c r="O21" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="S21" s="4"/>
       <c r="T21" s="14"/>
       <c r="U21" s="10" t="s">
@@ -5639,7 +5894,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -5647,23 +5902,49 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
+      <c r="B22" s="37">
+        <v>44393</v>
+      </c>
+      <c r="C22" s="37">
+        <v>44393</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="39">
+        <v>868345035616754</v>
+      </c>
       <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
+      <c r="G22" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H22" s="10"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
+      <c r="I22" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="L22" s="1"/>
-      <c r="M22" s="10"/>
+      <c r="M22" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="N22" s="10"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="10"/>
+      <c r="O22" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="S22" s="4"/>
       <c r="T22" s="14"/>
       <c r="U22" s="10" t="s">
@@ -5671,7 +5952,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -5679,23 +5960,49 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
+      <c r="B23" s="37">
+        <v>44393</v>
+      </c>
+      <c r="C23" s="37">
+        <v>44393</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="39">
+        <v>868345035624402</v>
+      </c>
       <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
+      <c r="G23" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H23" s="10"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="10"/>
+      <c r="I23" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="M23" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="N23" s="10"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="10"/>
+      <c r="O23" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="S23" s="4"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
@@ -5820,7 +6127,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -5948,7 +6255,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -5980,7 +6287,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -6076,7 +6383,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -6140,7 +6447,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6493,7 +6800,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -6719,13 +7026,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6737,6 +7037,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6780,43 +7087,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6861,58 +7168,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -6937,23 +7244,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6979,7 +7286,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7010,7 +7317,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7039,7 +7346,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7068,7 +7375,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7097,7 +7404,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7126,7 +7433,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7155,7 +7462,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7186,7 +7493,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7215,7 +7522,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7244,7 +7551,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7273,7 +7580,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8504,6 +8811,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8515,13 +8829,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_LapDat.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="111">
   <si>
     <t>STT</t>
   </si>
@@ -364,6 +364,12 @@
   </si>
   <si>
     <t>Nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16565</t>
   </si>
 </sst>
 </file>
@@ -4773,8 +4779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="K7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5894,7 +5900,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -5952,7 +5958,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -6013,23 +6019,51 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
+      <c r="B24" s="37">
+        <v>44396</v>
+      </c>
+      <c r="C24" s="37">
+        <v>44397</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="39">
+        <v>868926033990794</v>
+      </c>
       <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
+      <c r="G24" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H24" s="10"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
+      <c r="I24" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L24" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="N24" s="10"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="10"/>
+      <c r="O24" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="S24" s="4"/>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
@@ -6040,23 +6074,51 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
+      <c r="B25" s="37">
+        <v>44396</v>
+      </c>
+      <c r="C25" s="37">
+        <v>44397</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="39">
+        <v>868345035606391</v>
+      </c>
       <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
+      <c r="G25" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H25" s="10"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="I25" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L25" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="N25" s="10"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="10"/>
+      <c r="O25" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
       <c r="U25" s="69" t="s">
@@ -6071,23 +6133,51 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
+      <c r="B26" s="37">
+        <v>44396</v>
+      </c>
+      <c r="C26" s="37">
+        <v>44397</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="39">
+        <v>868926033961480</v>
+      </c>
       <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
+      <c r="G26" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H26" s="10"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+      <c r="I26" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L26" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="N26" s="10"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="10"/>
+      <c r="O26" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="S26" s="4"/>
       <c r="T26" s="14"/>
       <c r="U26" s="4" t="s">
@@ -6103,23 +6193,51 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
+      <c r="B27" s="37">
+        <v>44396</v>
+      </c>
+      <c r="C27" s="37">
+        <v>44397</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="39">
+        <v>868926033906915</v>
+      </c>
       <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
+      <c r="G27" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H27" s="10"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="I27" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L27" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="N27" s="10"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="10"/>
+      <c r="O27" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="S27" s="4"/>
       <c r="T27" s="14"/>
       <c r="U27" s="4" t="s">
@@ -6135,23 +6253,51 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
+      <c r="B28" s="37">
+        <v>44396</v>
+      </c>
+      <c r="C28" s="37">
+        <v>44397</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="39">
+        <v>868345035591841</v>
+      </c>
       <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
+      <c r="G28" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="10"/>
+      <c r="I28" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L28" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="N28" s="10"/>
+      <c r="O28" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="S28" s="4"/>
       <c r="T28" s="14"/>
       <c r="U28" s="4" t="s">
@@ -6167,23 +6313,51 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
+      <c r="B29" s="37">
+        <v>44396</v>
+      </c>
+      <c r="C29" s="37">
+        <v>44397</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="39">
+        <v>868926033919231</v>
+      </c>
       <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
+      <c r="G29" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="10"/>
+      <c r="I29" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L29" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="N29" s="10"/>
+      <c r="O29" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="S29" s="4"/>
       <c r="T29" s="14"/>
       <c r="U29" s="4" t="s">
@@ -6191,7 +6365,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -6199,23 +6373,51 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="B30" s="37">
+        <v>44396</v>
+      </c>
+      <c r="C30" s="37">
+        <v>44397</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="39">
+        <v>868926033935815</v>
+      </c>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="I30" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L30" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="10"/>
+      <c r="O30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="S30" s="4"/>
       <c r="T30" s="14"/>
       <c r="U30" s="4" t="s">
@@ -6255,7 +6457,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -6383,7 +6585,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -6447,7 +6649,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="W37" s="14"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_LapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="34" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="124">
   <si>
     <t>STT</t>
   </si>
@@ -370,6 +370,45 @@
   </si>
   <si>
     <t>Lock: 125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>ID cũ: 000001405052010</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận thẻ nhớ, sim</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00002.180125</t>
+  </si>
+  <si>
+    <t>Câu lại mạch</t>
+  </si>
+  <si>
+    <t>SE.2.03.---24.111215</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>Tràn bộ nhớ tin nhắn</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại thiết bị, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>SF,NCFW</t>
+  </si>
+  <si>
+    <t>124.158.005.014,16873</t>
+  </si>
+  <si>
+    <t>SE.2.03.---25.111215</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
   </si>
 </sst>
 </file>
@@ -790,7 +829,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -812,21 +866,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1135,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showZeros="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1168,43 +1207,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -1249,58 +1288,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -1325,23 +1364,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1351,7 +1390,9 @@
       <c r="B6" s="37">
         <v>44386</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44398</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>92</v>
       </c>
@@ -1363,19 +1404,35 @@
         <v>66</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
+      <c r="I6" s="50" t="s">
+        <v>117</v>
+      </c>
       <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="K6" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1390,7 +1447,9 @@
       <c r="B7" s="37">
         <v>44386</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44398</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>92</v>
       </c>
@@ -1402,19 +1461,35 @@
         <v>66</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
+      <c r="I7" s="50" t="s">
+        <v>121</v>
+      </c>
       <c r="J7" s="40"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="K7" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1427,7 +1502,9 @@
       <c r="B8" s="37">
         <v>44386</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44398</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>92</v>
       </c>
@@ -1439,19 +1516,37 @@
         <v>66</v>
       </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="I8" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>119</v>
+      </c>
       <c r="N8" s="41"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>120</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1480,7 +1575,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1509,7 +1604,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1538,7 +1633,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1567,7 +1662,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1598,7 +1693,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1627,7 +1722,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1656,7 +1751,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1685,7 +1780,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1804,7 +1899,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -2209,7 +2304,7 @@
       </c>
       <c r="V33" s="10">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="14"/>
     </row>
@@ -2273,7 +2368,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2337,7 +2432,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2916,13 +3011,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2934,6 +3022,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2944,8 +3039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2977,43 +3072,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -3058,58 +3153,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3134,23 +3229,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3160,7 +3255,9 @@
       <c r="B6" s="37">
         <v>44356</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44398</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>91</v>
       </c>
@@ -3177,7 +3274,9 @@
         <v>96</v>
       </c>
       <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
+      <c r="L6" s="40" t="s">
+        <v>114</v>
+      </c>
       <c r="M6" s="40" t="s">
         <v>97</v>
       </c>
@@ -3196,7 +3295,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3211,7 +3310,9 @@
       <c r="B7" s="37">
         <v>44356</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44398</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>91</v>
       </c>
@@ -3230,7 +3331,9 @@
         <v>94</v>
       </c>
       <c r="K7" s="60"/>
-      <c r="L7" s="40"/>
+      <c r="L7" s="40" t="s">
+        <v>114</v>
+      </c>
       <c r="M7" s="40" t="s">
         <v>95</v>
       </c>
@@ -3249,7 +3352,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3262,7 +3365,9 @@
       <c r="B8" s="37">
         <v>44356</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44398</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>91</v>
       </c>
@@ -3273,20 +3378,38 @@
       <c r="G8" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="40"/>
+      <c r="H8" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>113</v>
+      </c>
       <c r="K8" s="59"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="L8" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>115</v>
+      </c>
       <c r="N8" s="41"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3315,7 +3438,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3344,7 +3467,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3373,7 +3496,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3402,7 +3525,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3433,7 +3556,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3462,7 +3585,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3491,7 +3614,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3520,7 +3643,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3671,7 +3794,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -3980,7 +4103,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -4172,7 +4295,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4751,13 +4874,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4769,6 +4885,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4779,8 +4902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView showZeros="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4812,43 +4935,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -4893,58 +5016,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -4969,23 +5092,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="69" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5037,7 +5160,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="70"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5096,7 +5219,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="70"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5155,7 +5278,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="70"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5214,7 +5337,7 @@
         <v>81</v>
       </c>
       <c r="T9" s="70"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5269,7 +5392,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5324,7 +5447,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5381,7 +5504,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5440,7 +5563,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5497,7 +5620,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5554,7 +5677,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5609,7 +5732,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7228,6 +7351,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7239,13 +7369,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7289,43 +7412,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -7370,58 +7493,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -7446,23 +7569,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7488,7 +7611,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7519,7 +7642,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7548,7 +7671,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7577,7 +7700,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7606,7 +7729,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7635,7 +7758,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7664,7 +7787,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7695,7 +7818,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7724,7 +7847,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7753,7 +7876,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7782,7 +7905,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9013,13 +9136,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9031,6 +9147,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_LapDat.xlsx
@@ -9,30 +9,33 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102SE" sheetId="34" r:id="rId1"/>
-    <sheet name="TG102" sheetId="33" r:id="rId2"/>
-    <sheet name="TG102V" sheetId="32" r:id="rId3"/>
-    <sheet name="TongThang" sheetId="25" r:id="rId4"/>
+    <sheet name="TG102LE" sheetId="35" r:id="rId1"/>
+    <sheet name="TG102SE" sheetId="34" r:id="rId2"/>
+    <sheet name="TG102" sheetId="33" r:id="rId3"/>
+    <sheet name="TG102V" sheetId="32" r:id="rId4"/>
+    <sheet name="TongThang" sheetId="25" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TG102'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">'TG102'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="3">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TG102'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">'TG102'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="4">TongThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="139">
   <si>
     <t>STT</t>
   </si>
@@ -409,6 +412,51 @@
   </si>
   <si>
     <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.181005</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15757</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,15757</t>
+  </si>
+  <si>
+    <t>Hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>LE.3.00.---01.200923</t>
+  </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>Lock: 027.000.012.023,09008</t>
+  </si>
+  <si>
+    <t>thiết bị GPS Global</t>
+  </si>
+  <si>
+    <t>Mở khóa cấu hình lại thiết bị</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nguồn</t>
+  </si>
+  <si>
+    <t>Thay tụ lọc nguồn, nâng cấp fW</t>
+  </si>
+  <si>
+    <t>NG,NCFW</t>
+  </si>
+  <si>
+    <t>LE.1.00.---04.181025</t>
+  </si>
+  <si>
+    <t>Cấu hình thiết bị, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.180115</t>
   </si>
 </sst>
 </file>
@@ -608,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -828,6 +876,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1174,6 +1228,1901 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="68" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="68" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17" style="20" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="58" customWidth="1"/>
+    <col min="10" max="10" width="53" style="20" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="58" style="20" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="20" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="20" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="20"/>
+    <col min="21" max="21" width="30.5703125" style="20" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="20" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="20" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="47"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="85"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="27"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="27"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="80"/>
+      <c r="M4" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="48"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="86"/>
+      <c r="B5" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="80"/>
+      <c r="K5" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="48"/>
+    </row>
+    <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="37">
+        <v>44399</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="39">
+        <v>868183034578141</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="41"/>
+      <c r="O6" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="75"/>
+    </row>
+    <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37">
+        <v>44399</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="39">
+        <v>868183037859555</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="N7" s="41"/>
+      <c r="O7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="75"/>
+    </row>
+    <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="37">
+        <v>44399</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="39">
+        <v>868183034524608</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="N8" s="41"/>
+      <c r="O8" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="S8" s="4"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="75"/>
+    </row>
+    <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="37">
+        <v>44399</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868183034674924</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="N9" s="41"/>
+      <c r="O9" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" s="4"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="75"/>
+    </row>
+    <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="75"/>
+    </row>
+    <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="75"/>
+    </row>
+    <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="75"/>
+    </row>
+    <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="75"/>
+    </row>
+    <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="75"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="75"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="75"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="75"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="14"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="49"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>3</v>
+      </c>
+      <c r="W20" s="14"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="14"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>1</v>
+      </c>
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="14"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="14"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="49"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="14"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="14"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="14"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>1</v>
+      </c>
+      <c r="W29" s="14"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="10">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="14"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="10">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="14"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="14"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="10">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="14"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="10">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="14"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>2</v>
+      </c>
+      <c r="W35" s="14"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="10">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>2</v>
+      </c>
+      <c r="W36" s="14"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="10">
+        <f>SUM(V26:V36)</f>
+        <v>5</v>
+      </c>
+      <c r="W37" s="14"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="14"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="14"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="10">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="14"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="10">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="14"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="14"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="14"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="35">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="33"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
+        <v>45</v>
+      </c>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
+      <c r="X50" s="33"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>46</v>
+      </c>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
+      <c r="X51" s="33"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="33"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>48</v>
+      </c>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
+      <c r="X53" s="33"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>49</v>
+      </c>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="33"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="33"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
     <sheetView showZeros="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M6" sqref="M6:M8"/>
     </sheetView>
@@ -1207,43 +3156,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -1288,58 +3237,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -1364,23 +3313,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1432,7 +3381,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1489,7 +3438,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1546,7 +3495,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1575,7 +3524,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1604,7 +3553,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1633,7 +3582,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1662,7 +3611,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1693,7 +3642,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1722,7 +3671,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1751,7 +3700,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1780,7 +3729,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3035,11 +4984,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -3072,43 +5021,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -3153,58 +5102,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3229,23 +5178,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3295,7 +5244,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3352,7 +5301,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3409,7 +5358,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3438,7 +5387,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3467,7 +5416,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3496,7 +5445,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3525,7 +5474,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3556,7 +5505,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3585,7 +5534,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3614,7 +5563,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3643,7 +5592,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4898,12 +6847,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4935,43 +6884,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -5016,58 +6965,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -5092,23 +7041,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="69" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5160,7 +7109,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="70"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5219,7 +7168,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="70"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5278,7 +7227,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="70"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5337,7 +7286,7 @@
         <v>81</v>
       </c>
       <c r="T9" s="70"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5392,7 +7341,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5447,7 +7396,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5504,7 +7453,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5563,7 +7512,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5620,7 +7569,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5677,7 +7626,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5732,7 +7681,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6081,7 +8030,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -6556,23 +8505,49 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+      <c r="B31" s="37">
+        <v>44399</v>
+      </c>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="39">
+        <v>868345035600717</v>
+      </c>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="I31" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L31" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="10"/>
+      <c r="O31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R31" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="S31" s="4"/>
       <c r="T31" s="14"/>
       <c r="U31" s="4" t="s">
@@ -6580,7 +8555,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -6588,23 +8563,49 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+      <c r="B32" s="37">
+        <v>44399</v>
+      </c>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="39">
+        <v>869627031850621</v>
+      </c>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="I32" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L32" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="10"/>
+      <c r="O32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R32" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="S32" s="4"/>
       <c r="T32" s="14"/>
       <c r="U32" s="4" t="s">
@@ -6708,7 +8709,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -6772,7 +8773,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -7375,7 +9376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
@@ -7412,43 +9413,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -7493,58 +9494,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -7569,23 +9570,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7611,7 +9612,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7642,7 +9643,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7671,7 +9672,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7700,7 +9701,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7729,7 +9730,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7758,7 +9759,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7787,7 +9788,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7818,7 +9819,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7847,7 +9848,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7876,7 +9877,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7905,7 +9906,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_LapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="35" r:id="rId1"/>
@@ -883,22 +883,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -920,6 +905,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1228,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1261,43 +1261,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -1342,58 +1342,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -1418,23 +1418,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1688,7 +1688,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1717,7 +1717,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1746,7 +1746,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1777,7 +1777,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1806,7 +1806,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1835,7 +1835,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1864,7 +1864,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3095,6 +3095,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3106,13 +3113,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3123,8 +3123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M8"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3156,43 +3156,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -3237,58 +3237,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3313,23 +3313,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3524,7 +3524,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3553,7 +3553,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3582,7 +3582,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3611,7 +3611,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3642,7 +3642,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3671,7 +3671,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3700,7 +3700,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3729,7 +3729,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4960,6 +4960,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4971,13 +4978,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5021,43 +5021,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -5102,58 +5102,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -5178,23 +5178,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5244,7 +5244,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5358,7 +5358,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5387,7 +5387,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5416,7 +5416,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5445,7 +5445,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5474,7 +5474,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5505,7 +5505,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5534,7 +5534,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5563,7 +5563,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5592,7 +5592,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6823,6 +6823,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6834,13 +6841,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6851,7 +6851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
@@ -6884,43 +6884,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -6965,58 +6965,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -7041,23 +7041,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="69" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7109,7 +7109,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="70"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7168,7 +7168,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="70"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7227,7 +7227,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="70"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>81</v>
       </c>
       <c r="T9" s="70"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7341,7 +7341,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7396,7 +7396,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7453,7 +7453,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7512,7 +7512,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7569,7 +7569,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7626,7 +7626,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7681,7 +7681,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9352,13 +9352,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9370,6 +9363,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9413,43 +9413,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -9494,58 +9494,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -9570,23 +9570,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9612,7 +9612,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9643,7 +9643,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9672,7 +9672,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9701,7 +9701,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9730,7 +9730,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9759,7 +9759,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9788,7 +9788,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9819,7 +9819,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9848,7 +9848,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9877,7 +9877,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9906,7 +9906,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11137,6 +11137,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -11148,13 +11155,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_LapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="35" r:id="rId1"/>
@@ -883,7 +883,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -905,21 +920,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1228,7 +1228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:S9"/>
     </sheetView>
   </sheetViews>
@@ -1261,43 +1261,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -1342,58 +1342,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -1418,23 +1418,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1688,7 +1688,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1717,7 +1717,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1746,7 +1746,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1777,7 +1777,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1806,7 +1806,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1835,7 +1835,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1864,7 +1864,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3095,13 +3095,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3113,6 +3106,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3123,7 +3123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
@@ -3156,43 +3156,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -3237,58 +3237,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3313,23 +3313,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3524,7 +3524,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3553,7 +3553,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3582,7 +3582,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3611,7 +3611,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3642,7 +3642,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3671,7 +3671,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3700,7 +3700,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3729,7 +3729,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4960,13 +4960,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4978,6 +4971,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5021,43 +5021,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -5102,58 +5102,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -5178,23 +5178,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5244,7 +5244,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5358,7 +5358,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5387,7 +5387,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5416,7 +5416,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5445,7 +5445,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5474,7 +5474,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5505,7 +5505,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5534,7 +5534,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5563,7 +5563,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5592,7 +5592,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6823,13 +6823,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6841,6 +6834,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6851,8 +6851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6884,43 +6884,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -6965,58 +6965,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -7041,23 +7041,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="69" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7109,7 +7109,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="70"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7168,7 +7168,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="70"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7227,7 +7227,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="70"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>81</v>
       </c>
       <c r="T9" s="70"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7341,7 +7341,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7396,7 +7396,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7453,7 +7453,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7512,7 +7512,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7569,7 +7569,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7626,7 +7626,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7681,7 +7681,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9352,6 +9352,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9363,13 +9370,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9413,43 +9413,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -9494,58 +9494,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -9570,23 +9570,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9612,7 +9612,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9643,7 +9643,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9672,7 +9672,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9701,7 +9701,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9730,7 +9730,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9759,7 +9759,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9788,7 +9788,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9819,7 +9819,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9848,7 +9848,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9877,7 +9877,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9906,7 +9906,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11137,13 +11137,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -11155,6 +11148,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_LapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="35" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="143">
   <si>
     <t>STT</t>
   </si>
@@ -457,6 +457,18 @@
   </si>
   <si>
     <t>VI.1.00.---01.180115</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>Lock; 125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>Connector lỗi</t>
+  </si>
+  <si>
+    <t>Hàn lại connector, nâng cấp FW</t>
   </si>
 </sst>
 </file>
@@ -883,22 +895,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -920,6 +917,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1228,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S9"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1261,43 +1273,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -1342,58 +1354,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -1418,23 +1430,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1488,7 +1500,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1547,7 +1559,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1602,7 +1614,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1659,7 +1671,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1669,26 +1681,52 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="37">
+        <v>44403</v>
+      </c>
       <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="D10" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="39">
+        <v>868183037786675</v>
+      </c>
       <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="I10" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>142</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>135</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1717,7 +1755,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1746,7 +1784,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1777,7 +1815,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1806,7 +1844,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1835,7 +1873,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1864,7 +1902,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2047,7 +2085,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -2260,7 +2298,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -2452,7 +2490,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2516,7 +2554,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -3095,6 +3133,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3106,13 +3151,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3156,43 +3194,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -3237,58 +3275,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3313,23 +3351,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3381,7 +3419,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3438,7 +3476,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3495,7 +3533,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3524,7 +3562,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3553,7 +3591,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3582,7 +3620,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3611,7 +3649,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3642,7 +3680,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3671,7 +3709,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3700,7 +3738,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3729,7 +3767,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4960,6 +4998,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4971,13 +5016,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5021,43 +5059,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -5102,58 +5140,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -5178,23 +5216,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5244,7 +5282,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5301,7 +5339,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5358,7 +5396,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5387,7 +5425,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5416,7 +5454,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5445,7 +5483,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5474,7 +5512,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5505,7 +5543,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5534,7 +5572,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5563,7 +5601,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5592,7 +5630,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6823,6 +6861,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6834,13 +6879,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6851,8 +6889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showZeros="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6884,43 +6922,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -6965,58 +7003,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -7041,23 +7079,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="69" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7109,7 +7147,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="70"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7168,7 +7206,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="70"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7227,7 +7265,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="70"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7286,7 +7324,7 @@
         <v>81</v>
       </c>
       <c r="T9" s="70"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7341,7 +7379,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7396,7 +7434,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7453,7 +7491,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7512,7 +7550,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7569,7 +7607,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7626,7 +7664,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7681,7 +7719,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8623,10 +8661,16 @@
       </c>
       <c r="B33" s="65"/>
       <c r="C33" s="65"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="D33" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="39">
+        <v>868345035590256</v>
+      </c>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="55"/>
       <c r="J33" s="1"/>
@@ -8655,10 +8699,16 @@
       </c>
       <c r="B34" s="65"/>
       <c r="C34" s="65"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
+      <c r="D34" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="39">
+        <v>868926033925808</v>
+      </c>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="55"/>
       <c r="J34" s="1"/>
@@ -8687,10 +8737,10 @@
       </c>
       <c r="B35" s="65"/>
       <c r="C35" s="65"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
       <c r="H35" s="1"/>
       <c r="I35" s="55"/>
       <c r="J35" s="1"/>
@@ -9352,13 +9402,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9370,6 +9413,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9413,43 +9463,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -9494,58 +9544,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -9570,23 +9620,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9612,7 +9662,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9643,7 +9693,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9672,7 +9722,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9701,7 +9751,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9730,7 +9780,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9759,7 +9809,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9788,7 +9838,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9819,7 +9869,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9848,7 +9898,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9877,7 +9927,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9906,7 +9956,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11137,6 +11187,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -11148,13 +11205,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_LapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="35" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="153">
   <si>
     <t>STT</t>
   </si>
@@ -490,6 +490,15 @@
   </si>
   <si>
     <t>GPS,LK</t>
+  </si>
+  <si>
+    <t>Thay module GSM/GPS, khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>GPS,LK,NCFW</t>
+  </si>
+  <si>
+    <t>Imei mới: 868183038005877</t>
   </si>
 </sst>
 </file>
@@ -910,22 +919,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -947,6 +941,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1255,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S11"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1288,43 +1297,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="50"/>
@@ -1369,58 +1378,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
@@ -1445,23 +1454,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1517,7 +1526,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1578,7 +1587,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1635,7 +1644,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1694,7 +1703,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1751,7 +1760,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1764,7 +1773,9 @@
       <c r="B11" s="37">
         <v>44406</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="37">
+        <v>44495</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>44</v>
       </c>
@@ -1775,7 +1786,9 @@
       <c r="G11" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="I11" s="49" t="s">
         <v>69</v>
       </c>
@@ -1785,24 +1798,28 @@
       <c r="K11" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="L11" s="40"/>
+      <c r="L11" s="40" t="s">
+        <v>128</v>
+      </c>
       <c r="M11" s="40" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
+      <c r="O11" s="40" t="s">
+        <v>71</v>
+      </c>
       <c r="P11" s="1" t="s">
         <v>72</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="R11" s="38" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1831,7 +1848,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1862,7 +1879,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1891,7 +1908,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1920,7 +1937,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1949,7 +1966,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2100,7 +2117,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -2132,7 +2149,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -2537,7 +2554,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2601,7 +2618,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -3180,6 +3197,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3191,13 +3215,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3241,43 +3258,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="50"/>
@@ -3322,58 +3339,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
@@ -3398,23 +3415,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3466,7 +3483,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3523,7 +3540,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3580,7 +3597,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3609,7 +3626,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3638,7 +3655,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3667,7 +3684,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3696,7 +3713,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3727,7 +3744,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3756,7 +3773,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3785,7 +3802,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3814,7 +3831,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5045,6 +5062,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5056,13 +5080,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5106,43 +5123,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="50"/>
@@ -5187,58 +5204,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
@@ -5263,23 +5280,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5329,7 +5346,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5386,7 +5403,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5443,7 +5460,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5472,7 +5489,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5501,7 +5518,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5530,7 +5547,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5559,7 +5576,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5590,7 +5607,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5619,7 +5636,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5648,7 +5665,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5677,7 +5694,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6908,6 +6925,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6919,13 +6943,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6969,43 +6986,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="50"/>
@@ -7050,58 +7067,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
@@ -7126,23 +7143,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7194,7 +7211,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7253,7 +7270,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7312,7 +7329,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7371,7 +7388,7 @@
         <v>81</v>
       </c>
       <c r="T9" s="68"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7426,7 +7443,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7481,7 +7498,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7538,7 +7555,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7597,7 +7614,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7654,7 +7671,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7711,7 +7728,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7766,7 +7783,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9495,13 +9512,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9513,6 +9523,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9523,7 +9540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
@@ -9556,43 +9573,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -9637,58 +9654,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
@@ -9713,23 +9730,23 @@
       <c r="I5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="43" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9785,7 +9802,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="42"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9846,7 +9863,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="42"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9903,7 +9920,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="42"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9962,7 +9979,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="42"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -10019,7 +10036,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="42"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10070,7 +10087,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="42"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10125,7 +10142,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="42"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -10182,7 +10199,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="42"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -10239,7 +10256,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="42"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -10292,7 +10309,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -10347,7 +10364,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12408,6 +12425,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12419,13 +12443,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
